--- a/FileShare/results/InprecisionTracing.MK.Toshiba.nonEclipse.Sun1.5.-server.-Xint.xlsx
+++ b/FileShare/results/InprecisionTracing.MK.Toshiba.nonEclipse.Sun1.5.-server.-Xint.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Toshiba!$A$1:$L$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Toshiba!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -84,16 +84,37 @@
     <t>p9.pdf</t>
   </si>
   <si>
-    <t>Filename</t>
-  </si>
-  <si>
     <t>compressed {true|false}</t>
   </si>
   <si>
     <t>total real instruction counts</t>
   </si>
   <si>
-    <t xml:space="preserve">total real execution duration </t>
+    <t>average ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will serve as </t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Ratio "predicted and adapted" through real execution duration</t>
+  </si>
+  <si>
+    <t>Ratio "predicted counts sum divided by real counts sum"</t>
+  </si>
+  <si>
+    <t>Average real execution duration pro real counted instruction</t>
+  </si>
+  <si>
+    <t>File-name</t>
   </si>
   <si>
     <r>
@@ -105,9 +126,8 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">predicted </t>
     </r>
@@ -115,11 +135,36 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t xml:space="preserve">execution duration </t>
+      <t>instruction counts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">total real execution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
@@ -132,52 +177,81 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">predicted </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
-      <t>instruction counts</t>
+      <t xml:space="preserve">execution </t>
     </r>
-  </si>
-  <si>
-    <t>average ratio</t>
-  </si>
-  <si>
-    <t>Prediction using correction factor in cell H23</t>
-  </si>
-  <si>
-    <t>Ratio "predicted through real execution duration"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will serve as </t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>correction</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>Ratio "predicted and adapted" through real execution duration</t>
-  </si>
-  <si>
-    <t>Ratio "predicted counts sum divided by real counts sum"</t>
-  </si>
-  <si>
-    <t>Average real execution duration pro real counted instruction</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ratio "predicted through real execution </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Predicted </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> using correction factor in cell H23</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -189,25 +263,8 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,12 +274,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -241,11 +292,65 @@
       <family val="3"/>
     </font>
     <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -356,118 +461,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,65 +676,35 @@
             <c:strRef>
               <c:f>Toshiba!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>j0.jpg</c:v>
+                  <c:v>p0.pdf</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>j1.jpg</c:v>
+                  <c:v>p1.pdf</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>j2.jpg</c:v>
+                  <c:v>p2.pdf</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>j3.jpg</c:v>
+                  <c:v>p3.pdf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>j4.jpg</c:v>
+                  <c:v>p4.pdf</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>j5.jpg</c:v>
+                  <c:v>p5.pdf</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>j6.jpg</c:v>
+                  <c:v>p6.pdf</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>j7.jpg</c:v>
+                  <c:v>p7.pdf</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>j8.jpg</c:v>
+                  <c:v>p8.pdf</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>j9.jpg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>p0.pdf</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>p1.pdf</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>p2.pdf</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>p3.pdf</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>p4.pdf</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p5.pdf</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>p6.pdf</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>p7.pdf</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>p8.pdf</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>p9.pdf</c:v>
                 </c:pt>
               </c:strCache>
@@ -608,89 +715,59 @@
               <c:f>Toshiba!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.64603955502000621</c:v>
+                  <c:v>0.68224993823173474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64894678926838401</c:v>
+                  <c:v>0.65375914546484115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63926324218357522</c:v>
+                  <c:v>0.46649200844550448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64783051750114728</c:v>
+                  <c:v>0.68009858944726276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62708115355414207</c:v>
+                  <c:v>0.68641234456187328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76679974603554912</c:v>
+                  <c:v>0.68151820933699514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66890446613349985</c:v>
+                  <c:v>0.66066161619658126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65171677081255652</c:v>
+                  <c:v>0.61844006871576074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65868083881132666</c:v>
+                  <c:v>0.63467702163708084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64090071503306445</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.614829219508924</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54536206759047379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.42769932784269105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.61948708572287992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.61944635287645544</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57838284551348773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.58807414615347675</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.60819160398522054</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.58548059047388512</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.51458909253515439</c:v>
+                  <c:v>0.63675847418024556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71576576"/>
-        <c:axId val="71742208"/>
+        <c:axId val="77376512"/>
+        <c:axId val="77990528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71576576"/>
+        <c:axId val="77376512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71742208"/>
+        <c:crossAx val="77990528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71742208"/>
+        <c:axId val="77990528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +775,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71576576"/>
+        <c:crossAx val="77376512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -707,7 +784,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -717,9 +794,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -735,65 +809,35 @@
             <c:strRef>
               <c:f>Toshiba!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>j0.jpg</c:v>
+                  <c:v>p0.pdf</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>j1.jpg</c:v>
+                  <c:v>p1.pdf</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>j2.jpg</c:v>
+                  <c:v>p2.pdf</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>j3.jpg</c:v>
+                  <c:v>p3.pdf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>j4.jpg</c:v>
+                  <c:v>p4.pdf</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>j5.jpg</c:v>
+                  <c:v>p5.pdf</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>j6.jpg</c:v>
+                  <c:v>p6.pdf</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>j7.jpg</c:v>
+                  <c:v>p7.pdf</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>j8.jpg</c:v>
+                  <c:v>p8.pdf</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>j9.jpg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>p0.pdf</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>p1.pdf</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>p2.pdf</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>p3.pdf</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>p4.pdf</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p5.pdf</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>p6.pdf</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>p7.pdf</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>p8.pdf</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>p9.pdf</c:v>
                 </c:pt>
               </c:strCache>
@@ -802,91 +846,27 @@
           <c:val>
             <c:numRef>
               <c:f>Toshiba!$K$2:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.95455301111439994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96419630483875474</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94950559664041179</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95225525589990356</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0094525010065385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1775725989122534</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0089662031419253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98102301908490719</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.981937992100957</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94381597827762753</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91894518877338416</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.77666420401577163</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.59280129566987916</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90568925254497601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.90478648407534457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84442233484795592</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85533746761489982</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9193622324768953</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84599744436580482</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7287493056971146</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77201792"/>
-        <c:axId val="77203328"/>
+        <c:axId val="86804736"/>
+        <c:axId val="86806528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77201792"/>
+        <c:axId val="86804736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77203328"/>
+        <c:crossAx val="86806528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77203328"/>
+        <c:axId val="86806528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +874,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77201792"/>
+        <c:crossAx val="86804736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,7 +883,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -913,9 +893,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -938,65 +915,35 @@
             <c:strRef>
               <c:f>Toshiba!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>j0.jpg</c:v>
+                  <c:v>p0.pdf</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>j1.jpg</c:v>
+                  <c:v>p1.pdf</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>j2.jpg</c:v>
+                  <c:v>p2.pdf</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>j3.jpg</c:v>
+                  <c:v>p3.pdf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>j4.jpg</c:v>
+                  <c:v>p4.pdf</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>j5.jpg</c:v>
+                  <c:v>p5.pdf</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>j6.jpg</c:v>
+                  <c:v>p6.pdf</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>j7.jpg</c:v>
+                  <c:v>p7.pdf</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>j8.jpg</c:v>
+                  <c:v>p8.pdf</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>j9.jpg</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>p0.pdf</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>p1.pdf</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>p2.pdf</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>p3.pdf</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>p4.pdf</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p5.pdf</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>p6.pdf</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>p7.pdf</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>p8.pdf</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>p9.pdf</c:v>
                 </c:pt>
               </c:strCache>
@@ -1005,92 +952,28 @@
           <c:val>
             <c:numRef>
               <c:f>Toshiba!$L$2:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7.9163717052795386</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9604110630346865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9580660580261746</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8754820805642254</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6243552647914985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.2277193116409322</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0802927629478187</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0647521931544208</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.9870728928437007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8899744612221774</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.472202546532845</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0729228172360834</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.8578852879620982</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2881565637149333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2811257891099928</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2779264457273669</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.2467229326726041</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.5698827616597715</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.1929024377077848</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.0298526920452922</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77231232"/>
-        <c:axId val="77232768"/>
+        <c:axId val="86817792"/>
+        <c:axId val="86819584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77231232"/>
+        <c:axId val="86817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77232768"/>
+        <c:crossAx val="86819584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77232768"/>
+        <c:axId val="86819584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +981,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77231232"/>
+        <c:crossAx val="86817792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,7 +990,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1495,953 +1378,954 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:L28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="26" customWidth="1"/>
-    <col min="11" max="256" width="15.140625" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="36" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="47" customWidth="1"/>
+    <col min="11" max="12" width="15.140625" style="34" hidden="1" customWidth="1"/>
+    <col min="13" max="256" width="15.140625" style="34" customWidth="1"/>
+    <col min="257" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="126">
+      <c r="A1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="E1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="43" customFormat="1" ht="15" hidden="1">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>36747</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>1044672049</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <v>997194850</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="22">
         <v>8270012250</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="22">
         <v>5342755034</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="10">
         <f>(G2/F2)</f>
         <v>0.64603955502000621</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="4">
         <f>G2/$H$23</f>
-        <v>8689027008.8057365</v>
-      </c>
-      <c r="J2" s="23">
+        <v>8221374148.7564497</v>
+      </c>
+      <c r="J2" s="11">
         <f>I2/F2</f>
-        <v>1.0506667639828147</v>
-      </c>
-      <c r="K2" s="32">
+        <v>0.99411873891195868</v>
+      </c>
+      <c r="K2" s="13">
         <f>E2/D2</f>
         <v>0.95455301111439994</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="21">
         <f>F2/D2</f>
         <v>7.9163717052795386</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" ht="15" hidden="1">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="5">
         <v>29510</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <v>830636499</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>800896643</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="23">
         <v>6612207976</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="24">
         <v>4290971136</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H21" si="0">(G3/F3)</f>
         <v>0.64894678926838401</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I21" si="1">G3/$H$23</f>
-        <v>6978490284.0278406</v>
-      </c>
-      <c r="J3" s="23">
+        <v>6602900366.2102947</v>
+      </c>
+      <c r="J3" s="11">
         <f t="shared" ref="J3:J21" si="2">I3/F3</f>
-        <v>1.0553948559024939</v>
-      </c>
-      <c r="K3" s="34">
+        <v>0.99859235979517147</v>
+      </c>
+      <c r="K3" s="15">
         <f t="shared" ref="K3:K21" si="3">E3/D3</f>
         <v>0.96419630483875474</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="21">
         <f t="shared" ref="L3:L21" si="4">F3/D3</f>
         <v>7.9604110630346865</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" ht="15" hidden="1">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="5">
         <v>44853</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>1281787103</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>1217064028</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="23">
         <v>10200546438</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="24">
         <v>6520834388</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>0.63926324218357522</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="8">
         <f t="shared" si="1"/>
-        <v>10604960503.843536</v>
-      </c>
-      <c r="J4" s="35">
+        <v>10034190024.559019</v>
+      </c>
+      <c r="J4" s="16">
         <f t="shared" si="2"/>
-        <v>1.0396463138814775</v>
-      </c>
-      <c r="K4" s="34">
+        <v>0.9836914213907938</v>
+      </c>
+      <c r="K4" s="15">
         <f t="shared" si="3"/>
         <v>0.94950559664041179</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="21">
         <f t="shared" si="4"/>
         <v>7.9580660580261746</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" ht="15" hidden="1">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="5">
         <v>36654</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <v>1044543770</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="7">
         <v>994672295</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="23">
         <v>8226285743</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="24">
         <v>5329238950</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>0.64783051750114728</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="8">
         <f t="shared" si="1"/>
-        <v>8667045537.0403423</v>
-      </c>
-      <c r="J5" s="35">
+        <v>8200575743.6484346</v>
+      </c>
+      <c r="J5" s="16">
         <f t="shared" si="2"/>
-        <v>1.0535794412946813</v>
-      </c>
-      <c r="K5" s="34">
+        <v>0.99687465277103426</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="3"/>
         <v>0.95225525589990356</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="21">
         <f t="shared" si="4"/>
         <v>7.8754820805642254</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" ht="15" hidden="1">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="5">
         <v>20061</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>539499969</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>544599593</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="23">
         <v>4652839398</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="24">
         <v>2917707897</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>0.62708115355414207</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
-        <v>4745125419.2835951</v>
-      </c>
-      <c r="J6" s="35">
+        <v>4489737621.3895769</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" si="2"/>
-        <v>1.0198343448783691</v>
-      </c>
-      <c r="K6" s="34">
+        <v>0.96494575405277661</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="3"/>
         <v>1.0094525010065385</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="21">
         <f t="shared" si="4"/>
         <v>8.6243552647914985</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" ht="15" hidden="1">
+      <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="5">
         <v>25149</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="5">
         <v>579673630</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>682607783</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="23">
         <v>4769391920</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="24">
         <v>3657168513</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>0.76679974603554912</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="8">
         <f t="shared" si="1"/>
-        <v>5947724681.9268847</v>
-      </c>
-      <c r="J7" s="36">
+        <v>5627611687.0576077</v>
+      </c>
+      <c r="J7" s="17">
         <f t="shared" si="2"/>
-        <v>1.2470614245362508</v>
-      </c>
-      <c r="K7" s="37">
+        <v>1.1799432257723974</v>
+      </c>
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>1.1775725989122534</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="21">
         <f t="shared" si="4"/>
         <v>8.2277193116409322</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:12" ht="15" hidden="1">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="5">
         <v>9578</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="5">
         <v>257943297</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="7">
         <v>260256069</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="23">
         <v>2084257356</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="24">
         <v>1394169054</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>0.66890446613349985</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
-        <v>2267364400.5680127</v>
-      </c>
-      <c r="J8" s="35">
+        <v>2145332388.7414889</v>
+      </c>
+      <c r="J8" s="16">
         <f t="shared" si="2"/>
-        <v>1.0878524161332084</v>
-      </c>
-      <c r="K8" s="34">
+        <v>1.0293030189221455</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="3"/>
         <v>1.0089662031419253</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="21">
         <f t="shared" si="4"/>
         <v>8.0802927629478187</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" ht="15" hidden="1">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="5">
         <v>23230</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <v>642753874</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <v>630556346</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="23">
         <v>5183650715</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="24">
         <v>3378272105</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>0.65171677081255652</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
-        <v>5494149998.7626066</v>
-      </c>
-      <c r="J9" s="35">
+        <v>5198448885.4092636</v>
+      </c>
+      <c r="J9" s="16">
         <f t="shared" si="2"/>
-        <v>1.0598997310648479</v>
-      </c>
-      <c r="K9" s="34">
+        <v>1.0028547776890988</v>
+      </c>
+      <c r="K9" s="15">
         <f t="shared" si="3"/>
         <v>0.98102301908490719</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="21">
         <f t="shared" si="4"/>
         <v>8.0647521931544208</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" ht="15" hidden="1">
+      <c r="A10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="5">
         <v>29038</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="5">
         <v>802590392</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="7">
         <v>788093998</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="23">
         <v>6410347964</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="24">
         <v>4222373374</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>0.65868083881132666</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="8">
         <f t="shared" si="1"/>
-        <v>6866928402.0084467</v>
-      </c>
-      <c r="J10" s="35">
+        <v>6497342865.710947</v>
+      </c>
+      <c r="J10" s="16">
         <f t="shared" si="2"/>
-        <v>1.0712255310589325</v>
-      </c>
-      <c r="K10" s="34">
+        <v>1.0135710108405196</v>
+      </c>
+      <c r="K10" s="15">
         <f t="shared" si="3"/>
         <v>0.981937992100957</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="21">
         <f t="shared" si="4"/>
         <v>7.9870728928437007</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" ht="15" hidden="1">
+      <c r="A11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="5">
         <v>29423</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="5">
         <v>846072594</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="7">
         <v>798536833</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="23">
         <v>6675491159</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="24">
         <v>4278327057</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>0.64090071503306445</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
-        <v>6957926971.0491762</v>
-      </c>
-      <c r="J11" s="23">
+        <v>6583443793.0445948</v>
+      </c>
+      <c r="J11" s="11">
         <f t="shared" si="2"/>
-        <v>1.0423093680033404</v>
-      </c>
-      <c r="K11" s="33">
+        <v>0.98621114705075963</v>
+      </c>
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>0.94381597827762753</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="21">
         <f t="shared" si="4"/>
         <v>7.8899744612221774</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:12" s="43" customFormat="1" ht="15">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>24789</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="25">
         <v>473621694</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="26">
         <v>435232377</v>
       </c>
-      <c r="F12" s="10">
-        <v>4012618922</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2467075360</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="F12" s="30">
+        <v>2137582291</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1458365386</v>
+      </c>
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0.614829219508924</v>
-      </c>
-      <c r="I12" s="10">
+        <v>0.68224993823173474</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>4012252910.6018405</v>
-      </c>
-      <c r="J12" s="24">
+        <v>2244117015.9593024</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" si="2"/>
-        <v>0.9999087849094882</v>
-      </c>
-      <c r="K12" s="32">
+        <v>1.0498388882654262</v>
+      </c>
+      <c r="K12" s="13">
         <f t="shared" si="3"/>
         <v>0.91894518877338416</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="21">
         <f t="shared" si="4"/>
-        <v>8.472202546532845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+        <v>4.5132693837288631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="5">
         <v>26457</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="27">
         <v>598056077</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="28">
         <v>464488747</v>
       </c>
-      <c r="F13" s="14">
-        <v>4828060550</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2633041084</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="F13" s="30">
+        <v>2380802029</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1556471100</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>0.54536206759047379</v>
-      </c>
-      <c r="I13" s="16">
+        <v>0.65375914546484115</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
-        <v>4282166213.6065536</v>
-      </c>
-      <c r="J13" s="30">
+        <v>2395081036.5427127</v>
+      </c>
+      <c r="J13" s="31">
         <f t="shared" si="2"/>
-        <v>0.88693299706163664</v>
-      </c>
-      <c r="K13" s="39">
+        <v>1.0059975619008987</v>
+      </c>
+      <c r="K13" s="20">
         <f t="shared" si="3"/>
         <v>0.77666420401577163</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="21">
         <f t="shared" si="4"/>
-        <v>8.0729228172360834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+        <v>3.9809009899919467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="5">
         <v>31762</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="27">
         <v>940513027</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="28">
         <v>557537341</v>
       </c>
-      <c r="F14" s="14">
-        <v>7390443478</v>
-      </c>
-      <c r="G14" s="16">
-        <v>3160887708</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="F14" s="30">
+        <v>4005410464</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1868491972</v>
+      </c>
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>0.42769932784269105</v>
-      </c>
-      <c r="I14" s="16">
+        <v>0.46649200844550448</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
-        <v>5140613502.1787825</v>
-      </c>
-      <c r="J14" s="36">
+        <v>2875215408.1559863</v>
+      </c>
+      <c r="J14" s="17">
         <f t="shared" si="2"/>
-        <v>0.69557578208688686</v>
-      </c>
-      <c r="K14" s="39">
+        <v>0.71783289977343667</v>
+      </c>
+      <c r="K14" s="20">
         <f t="shared" si="3"/>
         <v>0.59280129566987916</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="21">
         <f t="shared" si="4"/>
-        <v>7.8578852879620982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+        <v>4.2587506488626232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="5">
         <v>29091</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="27">
         <v>563867305</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="29">
         <v>510688558</v>
       </c>
-      <c r="F15" s="14">
-        <v>4673420505</v>
-      </c>
-      <c r="G15" s="16">
-        <v>2895123649</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="F15" s="30">
+        <v>2516390211</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1711393433</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>0.61948708572287992</v>
-      </c>
-      <c r="I15" s="16">
+        <v>0.68009858944726276</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
-        <v>4708396215.0440636</v>
-      </c>
-      <c r="J15" s="35">
+        <v>2633473861.1221442</v>
+      </c>
+      <c r="J15" s="31">
         <f t="shared" si="2"/>
-        <v>1.0074839638347639</v>
-      </c>
-      <c r="K15" s="34">
+        <v>1.0465284158276931</v>
+      </c>
+      <c r="K15" s="15">
         <f t="shared" si="3"/>
         <v>0.90568925254497601</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="21">
         <f t="shared" si="4"/>
-        <v>8.2881565637149333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+        <v>4.4627347404013786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="5">
         <v>33265</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="27">
         <v>645345237</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="29">
         <v>583899648</v>
       </c>
-      <c r="F16" s="14">
-        <v>5344185085</v>
-      </c>
-      <c r="G16" s="16">
-        <v>3310435960</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="F16" s="30">
+        <v>2850900045</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1956892984</v>
+      </c>
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>0.61944635287645544</v>
-      </c>
-      <c r="I16" s="16">
+        <v>0.68641234456187328</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>5383826749.3665047</v>
-      </c>
-      <c r="J16" s="35">
+        <v>3011245937.3783951</v>
+      </c>
+      <c r="J16" s="31">
         <f t="shared" si="2"/>
-        <v>1.0074177192099447</v>
-      </c>
-      <c r="K16" s="34">
+        <v>1.0562439544871505</v>
+      </c>
+      <c r="K16" s="15">
         <f t="shared" si="3"/>
         <v>0.90478648407534457</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="21">
         <f t="shared" si="4"/>
-        <v>8.2811257891099928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+        <v>4.4176355252157844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="5">
         <v>37831</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="27">
         <v>786320195</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="28">
         <v>663986335</v>
       </c>
-      <c r="F17" s="14">
-        <v>6509100737</v>
-      </c>
-      <c r="G17" s="16">
-        <v>3764752206</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="F17" s="30">
+        <v>3265427869</v>
+      </c>
+      <c r="G17" s="24">
+        <v>2225448554</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>0.57838284551348773</v>
-      </c>
-      <c r="I17" s="16">
+        <v>0.68151820933699514</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
-        <v>6122690146.0432892</v>
-      </c>
-      <c r="J17" s="35">
+        <v>3424496368.4110813</v>
+      </c>
+      <c r="J17" s="31">
         <f t="shared" si="2"/>
-        <v>0.94063533403927546</v>
-      </c>
-      <c r="K17" s="37">
+        <v>1.048712911689516</v>
+      </c>
+      <c r="K17" s="18">
         <f t="shared" si="3"/>
         <v>0.84442233484795592</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="21">
         <f t="shared" si="4"/>
-        <v>8.2779264457273669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+        <v>4.1527966466637682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="5">
         <v>37616</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="27">
         <v>771876955</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="28">
         <v>660215280</v>
       </c>
-      <c r="F18" s="14">
-        <v>6365455386</v>
-      </c>
-      <c r="G18" s="16">
-        <v>3743359741</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="F18" s="30">
+        <v>3349374292</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2212803033</v>
+      </c>
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
-        <v>0.58807414615347675</v>
-      </c>
-      <c r="I18" s="16">
+        <v>0.66066161619658126</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
-        <v>6087899161.8063107</v>
-      </c>
-      <c r="J18" s="35">
+        <v>3405037576.3112454</v>
+      </c>
+      <c r="J18" s="31">
         <f t="shared" si="2"/>
-        <v>0.95639648581873049</v>
-      </c>
-      <c r="K18" s="37">
+        <v>1.016619009838404</v>
+      </c>
+      <c r="K18" s="18">
         <f t="shared" si="3"/>
         <v>0.85533746761489982</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="21">
         <f t="shared" si="4"/>
-        <v>8.2467229326726041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+        <v>4.3392593473657985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="5">
         <v>30999</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="27">
         <v>591882569</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="29">
         <v>544154480</v>
       </c>
-      <c r="F19" s="14">
-        <v>5072364225</v>
-      </c>
-      <c r="G19" s="16">
-        <v>3084969334</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="F19" s="30">
+        <v>2948733708</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1823615077</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>0.60819160398522054</v>
-      </c>
-      <c r="I19" s="16">
+        <v>0.61844006871576074</v>
+      </c>
+      <c r="I19" s="8">
         <f t="shared" si="1"/>
-        <v>5017145965.6825895</v>
-      </c>
-      <c r="J19" s="35">
+        <v>2806159323.4054127</v>
+      </c>
+      <c r="J19" s="31">
         <f t="shared" si="2"/>
-        <v>0.98911390096057017</v>
-      </c>
-      <c r="K19" s="34">
+        <v>0.95164894537347378</v>
+      </c>
+      <c r="K19" s="15">
         <f t="shared" si="3"/>
         <v>0.9193622324768953</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="21">
         <f t="shared" si="4"/>
-        <v>8.5698827616597715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+        <v>4.9819573382300435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="5">
         <v>38526</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="27">
         <v>799265405</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="28">
         <v>676176490</v>
       </c>
-      <c r="F20" s="14">
-        <v>6548303485</v>
-      </c>
-      <c r="G20" s="16">
-        <v>3833904591</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="F20" s="30">
+        <v>3570833444</v>
+      </c>
+      <c r="G20" s="24">
+        <v>2266325935</v>
+      </c>
+      <c r="H20" s="31">
         <f t="shared" si="0"/>
-        <v>0.58548059047388512</v>
-      </c>
-      <c r="I20" s="16">
+        <v>0.63467702163708084</v>
+      </c>
+      <c r="I20" s="8">
         <f t="shared" si="1"/>
-        <v>6235154022.2952528</v>
-      </c>
-      <c r="J20" s="35">
+        <v>3487398043.9106336</v>
+      </c>
+      <c r="J20" s="31">
         <f t="shared" si="2"/>
-        <v>0.95217853549059395</v>
-      </c>
-      <c r="K20" s="37">
+        <v>0.9766341943980722</v>
+      </c>
+      <c r="K20" s="18">
         <f t="shared" si="3"/>
         <v>0.84599744436580482</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="21">
         <f t="shared" si="4"/>
-        <v>8.1929024377077848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+        <v>4.4676441913559364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
+      <c r="A21" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="5">
         <v>40151</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="27">
         <v>966969912</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="28">
         <v>704678652</v>
       </c>
-      <c r="F21" s="14">
-        <v>7764625951</v>
-      </c>
-      <c r="G21" s="16">
-        <v>3995591822</v>
-      </c>
-      <c r="H21" s="30">
+      <c r="F21" s="30">
+        <v>3709259697</v>
+      </c>
+      <c r="G21" s="24">
+        <v>2361902545</v>
+      </c>
+      <c r="H21" s="31">
         <f t="shared" si="0"/>
-        <v>0.51458909253515439</v>
-      </c>
-      <c r="I21" s="16">
+        <v>0.63675847418024556</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
-        <v>6498109128.4525709</v>
-      </c>
-      <c r="J21" s="25">
+        <v>3634470306.381834</v>
+      </c>
+      <c r="J21" s="33">
         <f t="shared" si="2"/>
-        <v>0.83688630585169199</v>
-      </c>
-      <c r="K21" s="38">
+        <v>0.97983711124927309</v>
+      </c>
+      <c r="K21" s="19">
         <f t="shared" si="3"/>
         <v>0.7287493056971146</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="21">
         <f t="shared" si="4"/>
-        <v>8.0298526920452922</v>
+        <v>3.8359618546228353</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="H23" s="27">
+      <c r="H23" s="46">
         <f>AVERAGE(H2:H21)</f>
-        <v>0.61488530632779503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="H24" s="28" t="s">
+        <v>0.64986156052855659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="31.5">
+      <c r="H24" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="31.5">
+      <c r="H25" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="31.5">
+      <c r="H26" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="31.5">
+      <c r="H27" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" s="49" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="H25" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="H26" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="H27" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="H28" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
